--- a/medicine/Mort/Cimetière_marin_du_Rosais/Cimetière_marin_du_Rosais.xlsx
+++ b/medicine/Mort/Cimetière_marin_du_Rosais/Cimetière_marin_du_Rosais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_du_Rosais</t>
+          <t>Cimetière_marin_du_Rosais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière marin du Rosais est un cimetière de Saint-Malo, dans le département d'Ille-et-Vilaine en Bretagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_du_Rosais</t>
+          <t>Cimetière_marin_du_Rosais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé chemin du Vau Garni dans le quartier du Rosais à Saint-Malo, dans le secteur de l'ancienne commune de Saint-Servan rattachée à Saint-Malo en 1967, le cimetière du Rosais est un cimetière marin et escarpé qui surplombe l'embouchure de la Rance dans la baie de Saint-Malo.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_du_Rosais</t>
+          <t>Cimetière_marin_du_Rosais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom prend celui de l'ancien proche hôpital du Rosais.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_du_Rosais</t>
+          <t>Cimetière_marin_du_Rosais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Sépultures de personnalités notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Étienne Blandin (1903-1991), Peintre de la Marine.
 Armand de Chateaubriand (1768-1809), cousin de l'académicien François-René de Chateaubriand.
@@ -581,7 +599,7 @@
 Geoffroy Dauvergne (1922-1977), peintre, sculpteur, fresquiste, élève d'Étienne Blandin,  Mathurin Méheut, Jean Dupas et Edmond Heuzé. Auteur de nombreuses fresques dans les écoles de Saint-Malo, Tinténiac, Combourg, Cholet, Mayenne, et la façade de l'église Saint-Jean-l'Évangéliste (1961). Dans le caveau familial avec ses parents Jules Dauvergne (1888-1964), notaire, puis juge à la cour d'appel de Rennes pendant l'occupation.
 Sépulture des Magon, une noble famille qui a occupé de nombreux postes dans l'histoire malouine et française.
 Jules Haize (1873-1933), maire de Saint-Servan en 1920.
-Guillaume Joseph de Kergariou (1877-1926) et son épouse (30 mai 1946), maire de La Gouesnière de 1905 à 1808 et de 1908 à son décès en 1926[1].
+Guillaume Joseph de Kergariou (1877-1926) et son épouse (30 mai 1946), maire de La Gouesnière de 1905 à 1808 et de 1908 à son décès en 1926.
 Sépulture des Magon
 René Martineau (1866-1948), homme de lettres, critique littéraire, ami de Léon Bloy sur lequel il fut prolixe.
 Jacques de Bernonville (1897-1972), collaborateur sous le régime de Vichy, il dirige en 1941 au Maroc les services du commissariat général aux questions juives et implanta le service d'ordre légionnaire, troupes de chocs à l'origine de la Milice. Au cours de l'hiver 1943-1944, il crée l'école d'instruction à Taverny pour former des stagiaires destinés à la Waffen-SS. Bras droit de Klaus Barbie, il dirigea les troupes qui, aux côtés des Allemands, anéantirent le maquis du plateau des Glières. Condamné à mort par contumace en 1945, il fuit dans différents pays. Arrêté au Canada, il fuit à nouveau au Brésil ou il est assassiné pour un motif crapuleux. Il est le beau-père[réf. nécessaire] du docteur Xavier Dor, militant anti-avortement.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_du_Rosais</t>
+          <t>Cimetière_marin_du_Rosais</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,9 +633,11 @@
           <t>Le cimetière dans l'audiovisuel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En septembre 2016, le cimetière est le décor d'une séquence du long-métrage Drôles d'oiseaux réalisé par Élise Girard[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En septembre 2016, le cimetière est le décor d'une séquence du long-métrage Drôles d'oiseaux réalisé par Élise Girard.</t>
         </is>
       </c>
     </row>
